--- a/src/main/resources/files/prospect-ok.xlsx
+++ b/src/main/resources/files/prospect-ok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afryan/IdeaProjects/bpartners-api/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76573B4-E9BE-674B-ABE5-21E35A4F6DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5660E66B-8C90-2347-87B8-EA415B5EB483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source Depa1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="216">
   <si>
     <t>website</t>
   </si>
@@ -666,9 +666,6 @@
     <t>Nouvelle intervention : adresse de l'intervention</t>
   </si>
   <si>
-    <t>Nouvelle intervention : distance entre l'intervention et le nouveau prospect (en mètres)</t>
-  </si>
-  <si>
     <t>Nouvelle intervention - Ancien client : Type du client</t>
   </si>
   <si>
@@ -678,9 +675,6 @@
     <t>Nouvelle intervention - Ancien client : Adresse de l'ancien client</t>
   </si>
   <si>
-    <t>Nouvelle intervention - Ancien client : Distance entre l'ancien client et la nouvelle intervention</t>
-  </si>
-  <si>
     <t>Nouvelle intervention :  type d'infesation</t>
   </si>
   <si>
@@ -690,13 +684,7 @@
     <t>Cambriolage : adresse du cambriolage</t>
   </si>
   <si>
-    <t>Cambriolage : distance entre le cambriolage et le prospect</t>
-  </si>
-  <si>
     <t>Cambriolage - Ancien client : adresse de l'ancien  client cambriolé</t>
-  </si>
-  <si>
-    <t>Cambriolage - Ancien client : distance entre l'ancien  client cambriolé et le cambriolage</t>
   </si>
   <si>
     <t>15 Rue Marbeuf, 75008 Paris, France</t>
@@ -1017,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1147,19 +1135,9 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,33 +1156,20 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1431,10 +1396,10 @@
     <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1456,28 +1421,22 @@
     <col min="21" max="22" width="20.5" customWidth="1"/>
     <col min="23" max="23" width="20.6640625" customWidth="1"/>
     <col min="24" max="24" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="62" customWidth="1"/>
-    <col min="26" max="26" width="24.1640625" customWidth="1"/>
-    <col min="27" max="27" width="20.5" customWidth="1"/>
-    <col min="28" max="28" width="24.1640625" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" style="62" customWidth="1"/>
-    <col min="30" max="30" width="11.5" style="31" customWidth="1"/>
-    <col min="31" max="31" width="14.5" style="31"/>
-    <col min="32" max="32" width="14.5" style="65"/>
-    <col min="33" max="33" width="14.5" style="31"/>
-    <col min="34" max="34" width="14.5" style="49"/>
-    <col min="35" max="36" width="14.5" style="31"/>
-    <col min="37" max="37" width="22.33203125" style="31" customWidth="1"/>
-    <col min="38" max="38" width="21.5" style="31" customWidth="1"/>
-    <col min="39" max="39" width="23.5" style="31" customWidth="1"/>
-    <col min="40" max="40" width="32.1640625" style="31" customWidth="1"/>
-    <col min="41" max="41" width="51.6640625" style="31" customWidth="1"/>
-    <col min="42" max="42" width="24.1640625" style="31" customWidth="1"/>
-    <col min="43" max="43" width="19.6640625" style="31" customWidth="1"/>
-    <col min="44" max="44" width="30.33203125" style="31" customWidth="1"/>
+    <col min="25" max="25" width="24.1640625" customWidth="1"/>
+    <col min="26" max="26" width="20.5" customWidth="1"/>
+    <col min="27" max="27" width="24.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="31" customWidth="1"/>
+    <col min="29" max="32" width="14.5" style="31"/>
+    <col min="33" max="33" width="22.33203125" style="31" customWidth="1"/>
+    <col min="34" max="34" width="21.5" style="31" customWidth="1"/>
+    <col min="35" max="35" width="23.5" style="31" customWidth="1"/>
+    <col min="36" max="36" width="32.1640625" style="31" customWidth="1"/>
+    <col min="37" max="37" width="51.6640625" style="31" customWidth="1"/>
+    <col min="38" max="38" width="24.1640625" style="31" customWidth="1"/>
+    <col min="39" max="39" width="19.6640625" style="31" customWidth="1"/>
+    <col min="40" max="40" width="30.33203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43">
         <v>0</v>
       </c>
@@ -1550,38 +1509,26 @@
       <c r="X1" s="43">
         <v>23</v>
       </c>
-      <c r="Y1" s="62">
+      <c r="Y1">
         <v>24</v>
       </c>
       <c r="Z1" s="43">
         <v>25</v>
       </c>
-      <c r="AA1" s="43">
+      <c r="AA1">
         <v>26</v>
       </c>
       <c r="AB1" s="43">
         <v>27</v>
       </c>
-      <c r="AC1" s="62">
+      <c r="AC1">
         <v>28</v>
       </c>
       <c r="AD1" s="43">
         <v>29</v>
       </c>
-      <c r="AE1" s="43">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="62">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="43">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="47">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>191</v>
       </c>
@@ -1649,7 +1596,7 @@
         <v>198</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X2" s="37" t="s">
         <v>199</v>
@@ -1663,39 +1610,27 @@
       <c r="AA2" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="AB2" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AB2" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="AD2" s="48" t="s">
+      <c r="AC2" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD2" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="AE2" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF2" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG2" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH2" s="48" t="s">
-        <v>210</v>
-      </c>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
       <c r="AI2" s="32"/>
       <c r="AJ2" s="32"/>
       <c r="AK2" s="32"/>
       <c r="AL2" s="32"/>
       <c r="AM2" s="32"/>
       <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-    </row>
-    <row r="3" spans="1:44" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:40" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1662,7 @@
       <c r="K3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="51">
         <v>44197</v>
       </c>
       <c r="M3" s="42" t="s">
@@ -1755,43 +1690,37 @@
       <c r="U3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="46" t="s">
         <v>111</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y3" s="61">
-        <v>500</v>
-      </c>
+      <c r="X3" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
       <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="45"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="34"/>
       <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="34"/>
-    </row>
-    <row r="4" spans="1:44" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
+    </row>
+    <row r="4" spans="1:40" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -1804,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -1815,7 +1744,7 @@
       <c r="K4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="51">
         <v>44563</v>
       </c>
       <c r="M4" s="28" t="s">
@@ -1838,7 +1767,7 @@
       <c r="T4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="48" t="s">
         <v>75</v>
       </c>
       <c r="V4" s="27" t="s">
@@ -1847,33 +1776,27 @@
       <c r="W4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="X4" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y4" s="60">
-        <v>2000.1</v>
-      </c>
+      <c r="X4" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="45"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
       <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-    </row>
-    <row r="5" spans="1:44" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:40" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
@@ -1888,9 +1811,9 @@
         <v>31</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="26" t="s">
@@ -1905,7 +1828,7 @@
       <c r="K5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="51">
         <v>44199</v>
       </c>
       <c r="M5" s="28" t="s">
@@ -1926,42 +1849,36 @@
       <c r="T5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="50"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="46"/>
       <c r="W5" s="26"/>
       <c r="X5" s="26"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="26" t="s">
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF5" s="61">
-        <v>250</v>
-      </c>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="46"/>
+      <c r="AC5" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
       <c r="AI5" s="33"/>
       <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
       <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="35"/>
-    </row>
-    <row r="6" spans="1:44" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN5" s="35"/>
+    </row>
+    <row r="6" spans="1:40" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -1976,7 +1893,7 @@
       <c r="F6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="26" t="s">
@@ -1989,7 +1906,7 @@
       <c r="K6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="51">
         <v>44200</v>
       </c>
       <c r="M6" s="28" t="s">
@@ -2017,47 +1934,39 @@
       <c r="U6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="50" t="s">
+      <c r="V6" s="46" t="s">
         <v>111</v>
       </c>
       <c r="W6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y6" s="61">
-        <v>500</v>
+      <c r="X6" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="Z6" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA6" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB6" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC6" s="61">
-        <v>250</v>
-      </c>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="45"/>
+        <v>215</v>
+      </c>
+      <c r="AA6" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
       <c r="AI6" s="33"/>
       <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
       <c r="AM6" s="33"/>
       <c r="AN6" s="33"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-    </row>
-    <row r="7" spans="1:44" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:40" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>42</v>
       </c>
@@ -2089,7 +1998,7 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="51">
         <v>44201</v>
       </c>
       <c r="M7" s="28" t="s">
@@ -2119,41 +2028,35 @@
       <c r="U7" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="V7" s="50" t="s">
+      <c r="V7" s="46" t="s">
         <v>111</v>
       </c>
       <c r="W7" s="26" t="s">
         <v>34</v>
       </c>
       <c r="X7" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="61">
-        <v>5000</v>
-      </c>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="27"/>
+        <v>209</v>
+      </c>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="26"/>
       <c r="AB7" s="26"/>
-      <c r="AC7" s="61"/>
+      <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="46"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="34"/>
       <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="33"/>
       <c r="AN7" s="33"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="U6:U7 U3 I3:I7 P3:T7 AD3:AD7" xr:uid="{5927C8BD-C5E0-BD4C-9A04-5AA2141EF2DB}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="U6:U7 U3 I3:I7 P3:T7 AB3:AB7" xr:uid="{5927C8BD-C5E0-BD4C-9A04-5AA2141EF2DB}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N3:N7" xr:uid="{8AB4D866-60F3-154F-84DA-A5E5880951E1}">
@@ -2162,7 +2065,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O3:O7" xr:uid="{C780201C-E3D7-7141-BCD0-B06319BC5B89}">
       <formula1>"Serrurier,Antinuisibles 3D,Couvreur,artisan d'art"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA7" xr:uid="{965543EE-2069-D648-9391-86138E89E32B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z7" xr:uid="{965543EE-2069-D648-9391-86138E89E32B}">
       <formula1>"commerce, restaurant, hangar, hôtel, épicerie, boulangerie-patisserie, école, établissement de santé, centres commerciaux, entrepôts et usines, jardins et parcs publics, fermes et élevages, centres de loisirs et parcs d'attraction, installations de produc"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2193,7 +2096,7 @@
           <x14:formula1>
             <xm:f>'Spec données croisées Depa'!$J$22:$K$22</xm:f>
           </x14:formula1>
-          <xm:sqref>Z6</xm:sqref>
+          <xm:sqref>Y6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2313,7 +2216,7 @@
       </c>
     </row>
     <row r="7" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -2334,7 +2237,7 @@
       </c>
     </row>
     <row r="8" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C8" s="57"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
@@ -2353,7 +2256,7 @@
       </c>
     </row>
     <row r="9" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C9" s="57"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="12" t="s">
         <v>71</v>
       </c>
@@ -2372,7 +2275,7 @@
       </c>
     </row>
     <row r="10" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C10" s="57"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="11" t="s">
         <v>72</v>
       </c>
@@ -2391,7 +2294,7 @@
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="57"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2400,7 +2303,7 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C12" s="57"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="13" t="s">
         <v>73</v>
       </c>
@@ -2436,7 +2339,7 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C13" s="57"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="13" t="s">
         <v>77</v>
       </c>
@@ -2472,7 +2375,7 @@
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C14" s="57"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="12" t="s">
         <v>78</v>
       </c>
@@ -2508,7 +2411,7 @@
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C15" s="57"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="11" t="s">
         <v>79</v>
       </c>
@@ -2544,7 +2447,7 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="3:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C16" s="58"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="11" t="s">
         <v>81</v>
       </c>
@@ -2660,13 +2563,13 @@
       <c r="I19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="47" t="s">
         <v>112</v>
       </c>
       <c r="M19" s="5"/>
@@ -2763,7 +2666,7 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -2783,10 +2686,10 @@
         <v>105</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2801,7 +2704,7 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="57"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="16" t="s">
         <v>107</v>
       </c>
@@ -2837,7 +2740,7 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="57"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="16" t="s">
         <v>109</v>
       </c>
@@ -2861,7 +2764,7 @@
       </c>
     </row>
     <row r="25" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="57"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="16" t="s">
         <v>113</v>
       </c>
@@ -2882,7 +2785,7 @@
       </c>
     </row>
     <row r="26" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="58"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="16" t="s">
         <v>117</v>
       </c>
@@ -2957,7 +2860,7 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -2982,7 +2885,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="57"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="11" t="s">
         <v>132</v>
       </c>
@@ -3065,7 +2968,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="58"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="16" t="s">
         <v>107</v>
       </c>
@@ -3313,7 +3216,7 @@
       <c r="B45" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -3337,7 +3240,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="57"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="20" t="s">
         <v>184</v>
       </c>
@@ -3359,7 +3262,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="58"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="20" t="s">
         <v>187</v>
       </c>
@@ -11986,7 +11889,7 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/files/prospect-ok.xlsx
+++ b/src/main/resources/files/prospect-ok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afryan/IdeaProjects/bpartners-api/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5660E66B-8C90-2347-87B8-EA415B5EB483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3104C2AF-DCEF-294F-A5AC-7E7EA21D805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="218">
   <si>
     <t>website</t>
   </si>
@@ -713,6 +713,13 @@
   <si>
     <t>restaurant</t>
   </si>
+  <si>
+    <t>ID du propriétaire du prospect 
+(ID Account Holder)</t>
+  </si>
+  <si>
+    <t>b33e6eb0-e262-4596-a91f-20c6a7bfd343</t>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,8 +807,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,8 +869,14 @@
         <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1000,12 +1019,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,6 +1224,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1399,7 +1465,7 @@
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AD1"/>
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1491,9 @@
     <col min="26" max="26" width="20.5" customWidth="1"/>
     <col min="27" max="27" width="24.1640625" customWidth="1"/>
     <col min="28" max="28" width="11.5" style="31" customWidth="1"/>
-    <col min="29" max="32" width="14.5" style="31"/>
+    <col min="29" max="30" width="14.5" style="31"/>
+    <col min="31" max="31" width="33.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="31"/>
     <col min="33" max="33" width="22.33203125" style="31" customWidth="1"/>
     <col min="34" max="34" width="21.5" style="31" customWidth="1"/>
     <col min="35" max="35" width="23.5" style="31" customWidth="1"/>
@@ -1527,6 +1595,9 @@
       <c r="AD1" s="43">
         <v>29</v>
       </c>
+      <c r="AE1" s="43">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:40" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1619,7 +1690,9 @@
       <c r="AD2" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="AE2" s="32"/>
+      <c r="AE2" s="60" t="s">
+        <v>216</v>
+      </c>
       <c r="AF2" s="32"/>
       <c r="AG2" s="32"/>
       <c r="AH2" s="32"/>
@@ -1704,8 +1777,10 @@
       <c r="AA3" s="27"/>
       <c r="AB3" s="26"/>
       <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="34"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="AF3" s="34"/>
       <c r="AG3" s="33"/>
       <c r="AH3" s="34"/>
@@ -1784,8 +1859,10 @@
       <c r="AA4" s="27"/>
       <c r="AB4" s="26"/>
       <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="34"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="AF4" s="34"/>
       <c r="AG4" s="33"/>
       <c r="AH4" s="34"/>
@@ -1862,8 +1939,10 @@
       <c r="AC5" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="33"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="AF5" s="33"/>
       <c r="AG5" s="33"/>
       <c r="AH5" s="33"/>
@@ -1954,8 +2033,10 @@
       </c>
       <c r="AB6" s="26"/>
       <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="33"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="AF6" s="33"/>
       <c r="AG6" s="33"/>
       <c r="AH6" s="33"/>
@@ -2042,8 +2123,10 @@
       <c r="AA7" s="26"/>
       <c r="AB7" s="26"/>
       <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="34"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="AF7" s="34"/>
       <c r="AG7" s="33"/>
       <c r="AH7" s="34"/>
@@ -2055,6 +2138,7 @@
       <c r="AN7" s="33"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="U6:U7 U3 I3:I7 P3:T7 AB3:AB7" xr:uid="{5927C8BD-C5E0-BD4C-9A04-5AA2141EF2DB}">
       <formula1>"Yes,No"</formula1>
